--- a/Munkafüzet1.xlsx
+++ b/Munkafüzet1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\ikt\Új mappa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fazekasdo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABCB80E-9403-4D41-8462-5E7E9543BDB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC61D894-94FB-469A-BB11-EA2654D0490B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{0850C35A-8C28-4D4D-AE54-D65E2B7D171C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9060" xr2:uid="{0850C35A-8C28-4D4D-AE54-D65E2B7D171C}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -109,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -428,7 +437,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,79 +445,80 @@
     <col min="2" max="2" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>